--- a/data/Colorado-Transbasin-Diversions.xlsx
+++ b/data/Colorado-Transbasin-Diversions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,38 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indication of data status, particularly as it pertains to missing data.
+G = Value is good
+N = None/Value Does Not Apply
+I = Incomplete values; cell has been populated but may not yet contain all values or may need to be further verified
+M = Value is known to be missing in original source and therefore a value cannot be provided
+m = Value is estimated to be missing
+z = Unable to confirm value.  Value is possible but cannot confirm one way or the other
+x = OWF has made no attempt to populate data at this time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +165,38 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indication of data status, particularly as it pertains to missing data.
+G = Value is good
+N = None/Value Does Not Apply
+I = Incomplete values; cell has been populated but may not yet contain all values or may need to be further verified
+M = Value is known to be missing in original source and therefore a value cannot be provided
+m = Value is estimated to be missing
+z = Unable to confirm value.  Value is possible but cannot confirm one way or the other
+x = OWF has made no attempt to populate data at this time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,97 +226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>owf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Indication of data status, particularly as it pertains to missing data.
-G = Value is good
-N = None/Value Does Not Apply
-M = Value is known to be missing in original source and therefore a value cannot be provided
-m = Value is estimated to be missing
-z = Unable to confirm value.  Value is possible but cannot confirm one way or the other
-x = OWF has made no attempt to populate data at this time</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>owf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Indication of data status, particularly as it pertains to missing data.
-G = Value is good
-N = None/Value Does Not Apply
-M = Value is known to be missing in original source and therefore a value cannot be provided
-m = Value is estimated to be missing
-z = Unable to confirm value.  Value is possible but cannot confirm one way or the other
-x = OWF has made no attempt to populate data at this time</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>owf:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Indication of data status, particularly as it pertains to missing data.
-G = Value is good
-N = None/Value Does Not Apply
-M = Value is known to be missing in original source and therefore a value cannot be provided
-m = Value is estimated to be missing
-z = Unable to confirm value.  Value is possible but cannot confirm one way or the other
-x = OWF has made no attempt to populate data at this time</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -374,12 +346,73 @@
         </r>
       </text>
     </comment>
+    <comment ref="Y1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indication of data status, particularly as it pertains to missing data.
+G = Value is good
+N = None/Value Does Not Apply
+I = Incomplete values; cell has been populated but may not yet contain all values or may need to be further verified
+M = Value is known to be missing in original source and therefore a value cannot be provided
+m = Value is estimated to be missing
+z = Unable to confirm value.  Value is possible but cannot confirm one way or the other
+x = OWF has made no attempt to populate data at this time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>owf:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indication of data status, particularly as it pertains to missing data.
+G = Value is good
+N = None/Value Does Not Apply
+M = Value is known to be missing in original source and therefore a value cannot be provided
+m = Value is estimated to be missing
+z = Unable to confirm value.  Value is possible but cannot confirm one way or the other
+x = OWF has made no attempt to populate data at this time</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="420">
   <si>
     <t>TransbasinDiversionName</t>
   </si>
@@ -696,42 +729,15 @@
     <t>3804625</t>
   </si>
   <si>
-    <t>3704614</t>
-  </si>
-  <si>
     <t>3600829</t>
   </si>
   <si>
-    <t>0804611</t>
-  </si>
-  <si>
-    <t>0800653</t>
-  </si>
-  <si>
     <t>3704641</t>
   </si>
   <si>
     <t>3704624</t>
   </si>
   <si>
-    <t>1104612</t>
-  </si>
-  <si>
-    <t>5104634, 0404634</t>
-  </si>
-  <si>
-    <t>4800576, 0304600</t>
-  </si>
-  <si>
-    <t>4704603, 0304603</t>
-  </si>
-  <si>
-    <t>5104601, 0304601, 5101213, 5101212</t>
-  </si>
-  <si>
-    <t>0804611, 3604685</t>
-  </si>
-  <si>
     <t>3704614, 3704643</t>
   </si>
   <si>
@@ -744,9 +750,6 @@
     <t>1104612, 3804613</t>
   </si>
   <si>
-    <t>5104655, 5101269, 5101309, 5101310</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -861,9 +864,6 @@
     <t>The City of Denver diverts water from the upper Blue River basin in Dillon Reservoir to the North Fork of the South Platte River through the Roberts Tunnel.  Water from the Roberts Tunnel has historically been the last supply used by Denver and is generally used to top off Denver's storage reservoirs in the South Platte basin (Antero, Elevenmile and Cheesman reservoirs).  At 23.3 miles, the tunnel is the longest water delivery tunnel in the world.</t>
   </si>
   <si>
-    <t>3604684, 0800653</t>
-  </si>
-  <si>
     <t>4800577</t>
   </si>
   <si>
@@ -876,9 +876,6 @@
     <t>The Vidler Tunnel diverts water collected in the Vidler Collection System from the headwaters of Peru Creek, a tributary of the Blue River, under Argentine Pass and into the headwaters of Leavenworth Creek, a tributary of Clear Creek.  The tunnel is owned by the City of Golden.</t>
   </si>
   <si>
-    <t>0304604, 7600600</t>
-  </si>
-  <si>
     <t>The Wilson Supply Ditch diverts water from Sand Creek and Deadman Creek and delivers it to Sheep Creek, a tributary of the North Fork of the Cache la Poudre River.  Diversions through the ditch include water diverted from the Laramie River basin into Sand Creek through Deadman Ditch.  The ditch is one of five transmountain diversion structures included in the Laramie River Compact between Colorado and Wyoming.  The ditch is owned by the Divide Canal and Reservoir Company.  The company stores the water in Wooster Reservoir or Halligan Reservoir and releases the water on an as-needed basis through the North Fork of the Cache la Poudre River for irrigation and municipal use.</t>
   </si>
   <si>
@@ -888,9 +885,6 @@
     <t>Destination_GNIS_Name</t>
   </si>
   <si>
-    <t>0304602, 4704602</t>
-  </si>
-  <si>
     <t>Joe Wright Creek</t>
   </si>
   <si>
@@ -945,27 +939,6 @@
     <t>3604699</t>
   </si>
   <si>
-    <t>3704643</t>
-  </si>
-  <si>
-    <t>3804613</t>
-  </si>
-  <si>
-    <t>7804670</t>
-  </si>
-  <si>
-    <t>7804671</t>
-  </si>
-  <si>
-    <t>7704635</t>
-  </si>
-  <si>
-    <t>2904667</t>
-  </si>
-  <si>
-    <t>7704636</t>
-  </si>
-  <si>
     <t>Sheep Creek</t>
   </si>
   <si>
@@ -1026,9 +999,6 @@
     <t>06746500</t>
   </si>
   <si>
-    <t>Structure_WDID_CSV</t>
-  </si>
-  <si>
     <t>06750500</t>
   </si>
   <si>
@@ -1110,9 +1080,6 @@
     <t>00181805</t>
   </si>
   <si>
-    <t>3600829, 0704682, 3604658, 0704658</t>
-  </si>
-  <si>
     <t>STCTUNCO</t>
   </si>
   <si>
@@ -1158,9 +1125,6 @@
     <t>HSPTUNCO</t>
   </si>
   <si>
-    <t>3604683, 3604699, 3604684, 3604683, 3604688</t>
-  </si>
-  <si>
     <t>06750000</t>
   </si>
   <si>
@@ -1314,9 +1278,6 @@
     <t>Interbasin Compact Committee basin of the water destination</t>
   </si>
   <si>
-    <t>WDID(s) (identifers for structures such as ditches and reservoirs) of structures associated with the transbasin diversion, in comma-separated format (CSV)</t>
-  </si>
-  <si>
     <t>Multi-sentence description of the transbasin diversion project, for educational purposes</t>
   </si>
   <si>
@@ -1350,9 +1311,6 @@
     <t>Destination_IBCCBasin_Flag</t>
   </si>
   <si>
-    <t>Structure_WDID_CSV_Flag</t>
-  </si>
-  <si>
     <t>Single-character indication of data status as it pertains to missing water district; may be followed by a number to indicate method of estimation or source</t>
   </si>
   <si>
@@ -1405,9 +1363,6 @@
   </si>
   <si>
     <t>, 00181310, 00180944, 00180958, 00178424, 00178386, 00178423, 00178410, 00180945, 00181312, 00180940, 00180949, 00181309, 00178412, 00180942, 00175726, 00181007, 00180943, 00175725, 00181304, 00181311, 00178411, 00180939, 00180927</t>
-  </si>
-  <si>
-    <t>Need to verify</t>
   </si>
   <si>
     <t>z</t>
@@ -1527,6 +1482,219 @@
   </si>
   <si>
     <t>This worksheet lists the primary streamflow gage that records the total amount of water that is diverted by the transbasin diversion project.  This worksheet was created separate from the main worksheet in order to clearly indicate locations of gages (Latitude and Longitude columns), as compared to locations of structures.</t>
+  </si>
+  <si>
+    <t>3604683, 3604699, 3604684, 3604688</t>
+  </si>
+  <si>
+    <t>5104655, 5101269, 5101309, 5101310, 5100639, 5104603, 5100943, 5101264, 5101267, 5101268, 5101265, 5101266, 5101324, 5101313, 5101253, 5101258, 5101255</t>
+  </si>
+  <si>
+    <t>Source_Structure_WDID_CSV</t>
+  </si>
+  <si>
+    <t>Destination_Structure_WDID_CSV</t>
+  </si>
+  <si>
+    <t>Destination_Structure_WDID_CSV_Flag</t>
+  </si>
+  <si>
+    <t>Source_Structure_WDID_CSV_Flag</t>
+  </si>
+  <si>
+    <t>5104601, 5101213, 5101212</t>
+  </si>
+  <si>
+    <t>5104634, 5100678, 5104700, 5103742, 5100958, 5103710, 5103695, 5104620</t>
+  </si>
+  <si>
+    <t>0604655</t>
+  </si>
+  <si>
+    <t>3600829, 3604658, 3600933</t>
+  </si>
+  <si>
+    <t>3604626, 3600932, 3601055, 3601056, 3601057, 3601058, 3600979</t>
+  </si>
+  <si>
+    <t>3604684, 3604512</t>
+  </si>
+  <si>
+    <t>4800572</t>
+  </si>
+  <si>
+    <t>0304606</t>
+  </si>
+  <si>
+    <t>0304605</t>
+  </si>
+  <si>
+    <t>0704625</t>
+  </si>
+  <si>
+    <t>0704682, 0704658, 0700903</t>
+  </si>
+  <si>
+    <t>0704626</t>
+  </si>
+  <si>
+    <t>2304611</t>
+  </si>
+  <si>
+    <t>2304612</t>
+  </si>
+  <si>
+    <t>8000653</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>WDID(s) (identifers for structures such as ditches and reservoirs) of structures associated with the source of the transbasin diversion, in comma-separated format (CSV)</t>
+  </si>
+  <si>
+    <t>WDID(s) (identifers for structures such as ditches and reservoirs) of structures associated with the destination of the transbasin diversion, in comma-separated format (CSV)</t>
+  </si>
+  <si>
+    <t>Source_WaterDistrict_ID</t>
+  </si>
+  <si>
+    <t>Source_WaterDistrict_ID_Flag</t>
+  </si>
+  <si>
+    <t>Source_WaterDistrict_Name</t>
+  </si>
+  <si>
+    <t>Laramie River</t>
+  </si>
+  <si>
+    <t>Destination_WaterDistrict_ID</t>
+  </si>
+  <si>
+    <t>Destination_WaterDistrict_ID_Flag</t>
+  </si>
+  <si>
+    <t>Destination_WaterDistrict_Name</t>
+  </si>
+  <si>
+    <t>Cache La Poudre River</t>
+  </si>
+  <si>
+    <t>Boulder Creek</t>
+  </si>
+  <si>
+    <t>North Fork of South Platte</t>
+  </si>
+  <si>
+    <t>Upper South Platte</t>
+  </si>
+  <si>
+    <t>North Platte River Basin</t>
+  </si>
+  <si>
+    <t>Upper Colorado/Fraser Rivers</t>
+  </si>
+  <si>
+    <t>Blue River Basin</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>5104620</t>
+  </si>
+  <si>
+    <t>5103695</t>
+  </si>
+  <si>
+    <t>5103710</t>
+  </si>
+  <si>
+    <t>5100958</t>
+  </si>
+  <si>
+    <t>5103742</t>
+  </si>
+  <si>
+    <t>5104700</t>
+  </si>
+  <si>
+    <t>5100678</t>
+  </si>
+  <si>
+    <t>5101255</t>
+  </si>
+  <si>
+    <t>5101258</t>
+  </si>
+  <si>
+    <t>5101253</t>
+  </si>
+  <si>
+    <t>5101313</t>
+  </si>
+  <si>
+    <t>5101324</t>
+  </si>
+  <si>
+    <t>5101266</t>
+  </si>
+  <si>
+    <t>5101265</t>
+  </si>
+  <si>
+    <t>5101268</t>
+  </si>
+  <si>
+    <t>5101267</t>
+  </si>
+  <si>
+    <t>5101264</t>
+  </si>
+  <si>
+    <t>5100943</t>
+  </si>
+  <si>
+    <t>5104603</t>
+  </si>
+  <si>
+    <t>5100639</t>
+  </si>
+  <si>
+    <t>3600933</t>
+  </si>
+  <si>
+    <t>0700903</t>
+  </si>
+  <si>
+    <t>0704658</t>
+  </si>
+  <si>
+    <t>3600979</t>
+  </si>
+  <si>
+    <t>3601058</t>
+  </si>
+  <si>
+    <t>3601057</t>
+  </si>
+  <si>
+    <t>3601056</t>
+  </si>
+  <si>
+    <t>3601055</t>
+  </si>
+  <si>
+    <t>3600932</t>
+  </si>
+  <si>
+    <t>3604512</t>
+  </si>
+  <si>
+    <t>3604688</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1654,6 +1822,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2745,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,178 +2928,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -2937,121 +3109,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W42" sqref="W42:W45"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.28515625" customWidth="1"/>
-    <col min="21" max="21" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="41" customWidth="1"/>
-    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" customWidth="1"/>
+    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.140625" customWidth="1"/>
+    <col min="18" max="18" width="25.28515625" customWidth="1"/>
+    <col min="19" max="19" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" customWidth="1"/>
+    <col min="21" max="21" width="28" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" customWidth="1"/>
+    <col min="24" max="24" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.28515625" customWidth="1"/>
+    <col min="27" max="27" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>373</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="D1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>314</v>
-      </c>
       <c r="F1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
-        <v>315</v>
-      </c>
       <c r="H1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="I1" t="s">
-        <v>316</v>
-      </c>
       <c r="J1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L1" t="s">
+        <v>354</v>
+      </c>
+      <c r="M1" t="s">
         <v>88</v>
       </c>
-      <c r="K1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>318</v>
-      </c>
       <c r="N1" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" t="s">
+        <v>377</v>
+      </c>
+      <c r="P1" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>295</v>
+      </c>
+      <c r="T1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" t="s">
+        <v>296</v>
+      </c>
+      <c r="V1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
-        <v>321</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
+        <v>297</v>
+      </c>
+      <c r="X1" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
-      <c r="U1" t="s">
-        <v>322</v>
-      </c>
-      <c r="V1" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" t="s">
-        <v>323</v>
-      </c>
-      <c r="X1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3059,73 +3247,85 @@
         <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2">
+        <v>185</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="F2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2">
+      <c r="N2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N2">
+      <c r="P2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="O2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="S2" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T2" t="s">
+        <v>175</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA2" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3133,73 +3333,85 @@
         <v>76</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3">
+        <v>185</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="H3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N3">
+      <c r="N3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3">
+        <v>48</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="S3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="T3" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z3" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3207,217 +3419,251 @@
         <v>48</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4">
+        <v>185</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L4">
+      <c r="N4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N4">
+      <c r="P4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="S4" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T4" t="s">
+        <v>181</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z4" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA4" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="B5">
         <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5">
+        <v>185</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="F5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L5">
+      <c r="N5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N5">
+      <c r="P5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P5" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="S5" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T5" t="s">
+        <v>188</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z5" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA5" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>48</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6">
+        <v>185</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L6">
+      <c r="N6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N6">
+      <c r="P6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="S6" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T6" t="s">
+        <v>192</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z6" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA6" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -3425,73 +3671,85 @@
         <v>48</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7">
+        <v>185</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="H7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7">
+      <c r="N7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O7">
         <v>3</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N7">
+      <c r="P7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="S7" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T7" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z7" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="W7" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA7" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3499,73 +3757,85 @@
         <v>47</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8">
+        <v>185</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L8">
+      <c r="N8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N8">
+      <c r="P8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R8">
         <v>1</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P8" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="S8" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T8" t="s">
+        <v>157</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z8" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3573,73 +3843,85 @@
         <v>47</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9">
+        <v>185</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="H9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M9" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9">
+      <c r="N9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O9">
         <v>3</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N9">
+      <c r="P9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R9">
         <v>1</v>
       </c>
-      <c r="O9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P9" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="S9" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T9" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z9" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -3647,222 +3929,258 @@
         <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="T10" t="s">
+        <v>204</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F10" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P10" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="W10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z10" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA10" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B11">
         <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11">
+        <v>185</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11">
         <v>5</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="F11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L11">
+      <c r="N11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O11">
         <v>4</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N11">
+      <c r="P11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="R11">
         <v>1</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P11" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="S11" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T11" t="s">
+        <v>207</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z11" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B12">
         <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12">
+        <v>185</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12">
         <v>5</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="F12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M12" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L12">
+      <c r="N12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O12">
         <v>6</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N12">
+      <c r="P12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="R12">
         <v>1</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P12" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="S12" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T12" t="s">
+        <v>210</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z12" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA12" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC12" s="2"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3870,296 +4188,344 @@
         <v>51</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D13">
+        <v>185</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="F13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13">
+      <c r="N13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O13">
         <v>7</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N13">
+      <c r="P13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R13">
         <v>1</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P13" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="S13" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T13" t="s">
+        <v>213</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z13" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14">
+        <v>185</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14">
+      <c r="N14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14">
         <v>7</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N14">
+      <c r="P14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="O14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P14" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="S14" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T14" t="s">
+        <v>219</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z14" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B15">
         <v>36</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15">
+        <v>185</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="H15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M15" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15">
+      <c r="N15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O15">
         <v>7</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N15">
+      <c r="P15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="R15">
         <v>1</v>
       </c>
-      <c r="O15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P15" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="S15" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T15" t="s">
+        <v>223</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z15" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA15" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B16">
         <v>36</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16">
+        <v>185</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="H16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L16">
+      <c r="N16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16">
         <v>80</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N16">
+      <c r="P16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="O16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P16" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="S16" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T16" t="s">
+        <v>227</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z16" t="s">
         <v>12</v>
       </c>
-      <c r="U16" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC16" s="2"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -4167,1725 +4533,1951 @@
         <v>36</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17">
+        <v>185</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="H17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17">
+      <c r="N17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17">
         <v>23</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N17">
+      <c r="P17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="R17">
         <v>1</v>
       </c>
-      <c r="O17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P17" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="S17" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T17" t="s">
+        <v>231</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="W17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z17" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B18">
         <v>36</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18">
+        <v>185</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" t="s">
-        <v>288</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="F18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18">
+      <c r="N18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18">
         <v>23</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N18">
+      <c r="P18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="R18">
         <v>1</v>
       </c>
-      <c r="O18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="P18" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="S18" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="T18" t="s">
+        <v>234</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z18" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA18" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M19" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R19" s="14"/>
+      <c r="N19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="13"/>
       <c r="S19" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T19" t="s">
+        <v>307</v>
+      </c>
+      <c r="T19" s="13"/>
+      <c r="U19" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V19" s="14"/>
+      <c r="W19" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z19" t="s">
         <v>13</v>
       </c>
-      <c r="U19" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="W19" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X19" s="13"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA19" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB19" s="13"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" t="s">
         <v>65</v>
       </c>
-      <c r="G20" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="H20" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M20" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R20" s="14"/>
+      <c r="N20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="13"/>
       <c r="S20" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T20" t="s">
+        <v>307</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V20" s="14"/>
+      <c r="W20" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z20" t="s">
         <v>13</v>
       </c>
-      <c r="U20" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W20" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X20" s="13"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA20" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB20" s="13"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" t="s">
         <v>66</v>
       </c>
-      <c r="G21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M21" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R21" s="14"/>
+      <c r="N21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="13"/>
       <c r="S21" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T21" t="s">
+        <v>307</v>
+      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V21" s="14"/>
+      <c r="W21" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z21" t="s">
         <v>13</v>
       </c>
-      <c r="U21" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X21" s="13"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA21" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB21" s="13"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F22" t="s">
+        <v>307</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" t="s">
         <v>67</v>
       </c>
-      <c r="G22" t="s">
-        <v>342</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="H22" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M22" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R22" s="14"/>
+      <c r="N22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="13"/>
       <c r="S22" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T22" t="s">
+        <v>307</v>
+      </c>
+      <c r="T22" s="13"/>
+      <c r="U22" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V22" s="14"/>
+      <c r="W22" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z22" t="s">
         <v>13</v>
       </c>
-      <c r="U22" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V22" s="1" t="s">
+      <c r="AA22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB22" t="s">
         <v>117</v>
       </c>
-      <c r="W22" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" t="s">
         <v>68</v>
       </c>
-      <c r="G23" t="s">
-        <v>342</v>
-      </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="H23" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M23" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R23" s="14"/>
+      <c r="N23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="13"/>
       <c r="S23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T23" t="s">
+        <v>307</v>
+      </c>
+      <c r="T23" s="13"/>
+      <c r="U23" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V23" s="14"/>
+      <c r="W23" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z23" t="s">
         <v>13</v>
       </c>
-      <c r="U23" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="W23" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X23" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" t="s">
         <v>69</v>
       </c>
-      <c r="G24" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="H24" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M24" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R24" s="14"/>
+      <c r="N24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="13"/>
       <c r="S24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T24" t="s">
+        <v>307</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V24" s="14"/>
+      <c r="W24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y24" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z24" t="s">
         <v>13</v>
       </c>
-      <c r="U24" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X24" s="13"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB24" s="13"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" t="s">
         <v>70</v>
       </c>
-      <c r="G25" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="H25" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M25" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R25" s="14"/>
+      <c r="N25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" s="13"/>
+      <c r="P25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="13"/>
       <c r="S25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T25" t="s">
+        <v>307</v>
+      </c>
+      <c r="T25" s="13"/>
+      <c r="U25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V25" s="14"/>
+      <c r="W25" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z25" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V25" s="14"/>
-      <c r="W25" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="X25" s="13"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB25" s="13"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" t="s">
         <v>71</v>
       </c>
-      <c r="G26" t="s">
-        <v>342</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="H26" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M26" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R26" s="14"/>
+      <c r="N26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="13"/>
       <c r="S26" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T26" t="s">
+        <v>307</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V26" s="14"/>
+      <c r="W26" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z26" t="s">
         <v>13</v>
       </c>
-      <c r="U26" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V26" s="14"/>
-      <c r="W26" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="X26" s="13"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB26" s="13"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G27" t="s">
         <v>72</v>
       </c>
-      <c r="G27" t="s">
-        <v>342</v>
-      </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="H27" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M27" t="s">
         <v>14</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N27" s="13"/>
-      <c r="O27" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R27" s="14"/>
+      <c r="N27" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="13"/>
       <c r="S27" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T27" t="s">
+        <v>307</v>
+      </c>
+      <c r="T27" s="13"/>
+      <c r="U27" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V27" s="14"/>
+      <c r="W27" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z27" t="s">
         <v>13</v>
       </c>
-      <c r="U27" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V27" s="14"/>
-      <c r="W27" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="X27" s="13"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB27" s="13"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" t="s">
         <v>72</v>
       </c>
-      <c r="G28" t="s">
-        <v>342</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="H28" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M28" t="s">
         <v>14</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N28" s="13"/>
-      <c r="O28" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R28" s="14"/>
+      <c r="N28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="13"/>
       <c r="S28" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T28" t="s">
+        <v>307</v>
+      </c>
+      <c r="T28" s="13"/>
+      <c r="U28" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z28" t="s">
         <v>13</v>
       </c>
-      <c r="U28" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="X28" s="13"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB28" s="13"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F29" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" t="s">
         <v>73</v>
       </c>
-      <c r="G29" t="s">
-        <v>342</v>
-      </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="H29" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M29" t="s">
         <v>15</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N29" s="13"/>
-      <c r="O29" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R29" s="14"/>
+      <c r="N29" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="13"/>
       <c r="S29" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T29" t="s">
+        <v>307</v>
+      </c>
+      <c r="T29" s="13"/>
+      <c r="U29" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z29" t="s">
         <v>14</v>
       </c>
-      <c r="U29" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V29" s="14"/>
-      <c r="W29" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="X29" s="13"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB29" s="13"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G30" t="s">
         <v>74</v>
       </c>
-      <c r="G30" t="s">
-        <v>342</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="H30" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M30" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R30" s="14"/>
+      <c r="N30" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="13"/>
       <c r="S30" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T30" t="s">
+        <v>307</v>
+      </c>
+      <c r="T30" s="13"/>
+      <c r="U30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V30" s="14"/>
+      <c r="W30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z30" t="s">
         <v>14</v>
       </c>
-      <c r="U30" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V30" s="14"/>
-      <c r="W30" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="X30" s="13"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB30" s="13"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" t="s">
         <v>75</v>
       </c>
-      <c r="G31" t="s">
-        <v>342</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M31" t="s">
         <v>90</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R31" s="14"/>
+      <c r="N31" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O31" s="13"/>
+      <c r="P31" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="13"/>
       <c r="S31" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T31" t="s">
+        <v>307</v>
+      </c>
+      <c r="T31" s="13"/>
+      <c r="U31" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V31" s="14"/>
+      <c r="W31" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z31" t="s">
         <v>14</v>
       </c>
-      <c r="U31" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F32" t="s">
+        <v>307</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G32" t="s">
         <v>75</v>
       </c>
-      <c r="G32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="H32" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M32" t="s">
         <v>90</v>
       </c>
-      <c r="K32" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R32" s="14"/>
+      <c r="N32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O32" s="13"/>
+      <c r="P32" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="13"/>
       <c r="S32" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T32" t="s">
+        <v>307</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V32" s="14"/>
+      <c r="W32" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z32" t="s">
         <v>14</v>
       </c>
-      <c r="U32" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W32" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X32" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G33" t="s">
         <v>76</v>
       </c>
-      <c r="G33" t="s">
-        <v>342</v>
-      </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H33" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M33" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N33" s="13"/>
-      <c r="O33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R33" s="14"/>
+      <c r="N33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O33" s="13"/>
+      <c r="P33" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T33" t="s">
+        <v>307</v>
+      </c>
+      <c r="T33" s="13"/>
+      <c r="U33" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V33" s="14"/>
+      <c r="W33" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z33" t="s">
         <v>14</v>
       </c>
-      <c r="U33" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
         <v>77</v>
       </c>
-      <c r="G34" t="s">
-        <v>342</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="H34" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M34" t="s">
         <v>90</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N34" s="13"/>
-      <c r="O34" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R34" s="14"/>
+      <c r="N34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="13"/>
       <c r="S34" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T34" t="s">
+        <v>307</v>
+      </c>
+      <c r="T34" s="13"/>
+      <c r="U34" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V34" s="14"/>
+      <c r="W34" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y34" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z34" t="s">
         <v>14</v>
       </c>
-      <c r="U34" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W34" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA34" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
         <v>78</v>
       </c>
-      <c r="G35" t="s">
-        <v>342</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="H35" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M35" t="s">
         <v>90</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N35" s="13"/>
-      <c r="O35" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R35" s="14"/>
+      <c r="N35" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="13"/>
       <c r="S35" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T35" t="s">
+        <v>307</v>
+      </c>
+      <c r="T35" s="13"/>
+      <c r="U35" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V35" s="14"/>
+      <c r="W35" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z35" t="s">
         <v>14</v>
       </c>
-      <c r="U35" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W35" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X35" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA35" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G36" t="s">
         <v>79</v>
       </c>
-      <c r="G36" t="s">
-        <v>342</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="H36" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M36" t="s">
         <v>90</v>
       </c>
-      <c r="K36" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N36" s="13"/>
-      <c r="O36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R36" s="14"/>
+      <c r="N36" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="13"/>
       <c r="S36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T36" t="s">
+        <v>307</v>
+      </c>
+      <c r="T36" s="13"/>
+      <c r="U36" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V36" s="14"/>
+      <c r="W36" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z36" t="s">
         <v>14</v>
       </c>
-      <c r="U36" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W36" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA36" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
         <v>80</v>
       </c>
-      <c r="G37" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H37" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M37" t="s">
         <v>90</v>
       </c>
-      <c r="K37" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N37" s="13"/>
-      <c r="O37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R37" s="14"/>
+      <c r="N37" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="13"/>
       <c r="S37" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T37" t="s">
+        <v>307</v>
+      </c>
+      <c r="T37" s="13"/>
+      <c r="U37" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V37" s="14"/>
+      <c r="W37" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z37" t="s">
         <v>15</v>
       </c>
-      <c r="U37" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W37" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA37" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
         <v>80</v>
       </c>
-      <c r="G38" t="s">
-        <v>342</v>
-      </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="H38" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M38" t="s">
         <v>90</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N38" s="13"/>
-      <c r="O38" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R38" s="14"/>
+      <c r="N38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O38" s="13"/>
+      <c r="P38" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="13"/>
       <c r="S38" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T38" t="s">
+        <v>307</v>
+      </c>
+      <c r="T38" s="13"/>
+      <c r="U38" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V38" s="14"/>
+      <c r="W38" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z38" t="s">
         <v>15</v>
       </c>
-      <c r="U38" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="W38" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB38" s="13"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F39" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" t="s">
         <v>81</v>
       </c>
-      <c r="G39" t="s">
-        <v>342</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="H39" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M39" t="s">
         <v>90</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N39" s="13"/>
-      <c r="O39" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R39" s="14"/>
+      <c r="N39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T39" t="s">
+        <v>307</v>
+      </c>
+      <c r="T39" s="13"/>
+      <c r="U39" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V39" s="14"/>
+      <c r="W39" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y39" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z39" t="s">
         <v>15</v>
       </c>
-      <c r="U39" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="W39" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA39" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G40" t="s">
         <v>82</v>
       </c>
-      <c r="G40" t="s">
-        <v>342</v>
-      </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H40" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M40" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R40" s="14"/>
+      <c r="N40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="13"/>
       <c r="S40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T40" t="s">
+        <v>307</v>
+      </c>
+      <c r="T40" s="13"/>
+      <c r="U40" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V40" s="14"/>
+      <c r="W40" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z40" t="s">
         <v>15</v>
       </c>
-      <c r="U40" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="W40" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB40" s="13"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F41" t="s">
+        <v>307</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G41" t="s">
         <v>83</v>
       </c>
-      <c r="G41" t="s">
-        <v>342</v>
-      </c>
-      <c r="H41" s="14"/>
-      <c r="I41" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="H41" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M41" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N41" s="13"/>
-      <c r="O41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R41" s="14"/>
+      <c r="N41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="13"/>
       <c r="S41" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T41" t="s">
+        <v>307</v>
+      </c>
+      <c r="T41" s="13"/>
+      <c r="U41" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V41" s="14"/>
+      <c r="W41" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z41" t="s">
         <v>16</v>
       </c>
-      <c r="U41" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V41" s="14"/>
-      <c r="W41" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="X41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB41" s="13"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" t="s">
         <v>84</v>
       </c>
-      <c r="G42" t="s">
-        <v>342</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="H42" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" t="s">
         <v>91</v>
       </c>
-      <c r="K42" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N42" s="13"/>
-      <c r="O42" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R42" s="14"/>
+      <c r="N42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="13"/>
       <c r="S42" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T42" t="s">
+        <v>307</v>
+      </c>
+      <c r="T42" s="13"/>
+      <c r="U42" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V42" s="14"/>
+      <c r="W42" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z42" t="s">
         <v>16</v>
       </c>
-      <c r="U42" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W42" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA42" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" t="s">
         <v>85</v>
       </c>
-      <c r="G43" t="s">
-        <v>342</v>
-      </c>
-      <c r="H43" s="14"/>
-      <c r="I43" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="H43" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L43" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="s">
         <v>91</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N43" s="13"/>
-      <c r="O43" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R43" s="14"/>
+      <c r="N43" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O43" s="13"/>
+      <c r="P43" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="13"/>
       <c r="S43" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T43" t="s">
+        <v>307</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="U43" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V43" s="14"/>
+      <c r="W43" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z43" t="s">
         <v>16</v>
       </c>
-      <c r="U43" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="W43" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X43" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA43" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
         <v>86</v>
       </c>
-      <c r="G44" t="s">
-        <v>342</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="H44" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M44" t="s">
         <v>91</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N44" s="13"/>
-      <c r="O44" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R44" s="14"/>
+      <c r="N44" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O44" s="13"/>
+      <c r="P44" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="13"/>
       <c r="S44" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T44" t="s">
+        <v>307</v>
+      </c>
+      <c r="T44" s="13"/>
+      <c r="U44" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V44" s="14"/>
+      <c r="W44" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z44" t="s">
         <v>16</v>
       </c>
-      <c r="U44" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="W44" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X44" s="13"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA44" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB44" s="13"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" t="s">
         <v>87</v>
       </c>
-      <c r="G45" t="s">
-        <v>342</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="H45" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="M45" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="N45" s="13"/>
-      <c r="O45" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="R45" s="14"/>
+      <c r="N45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O45" s="13"/>
+      <c r="P45" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="13"/>
       <c r="S45" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="T45" t="s">
+        <v>307</v>
+      </c>
+      <c r="T45" s="13"/>
+      <c r="U45" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="V45" s="14"/>
+      <c r="W45" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y45" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z45" t="s">
         <v>16</v>
       </c>
-      <c r="U45" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W45" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="X45" t="s">
-        <v>131</v>
+      <c r="AA45" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5896,15 +6488,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5703125" customWidth="1"/>
@@ -5936,7 +6528,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>96</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5944,7 +6539,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>158</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,503 +6552,772 @@
       <c r="B4" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="F4" s="8" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>361</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>97</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>93</v>
+        <v>362</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>93</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>363</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>174</v>
+        <v>94</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>160</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>177</v>
+        <v>95</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AN19" s="18"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="F21" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>260</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>284</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>284</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="F30" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>261</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>261</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>261</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F48" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B51" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>286</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="F56" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>262</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>262</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>262</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>287</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>287</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>287</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>339</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>52</v>
-      </c>
       <c r="B68" s="1" t="s">
-        <v>125</v>
+        <v>367</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -6463,7 +7330,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6480,10 +7347,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -6497,10 +7364,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D2" s="3">
         <v>40.908034000000001</v>
@@ -6514,10 +7381,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="D3" s="3">
         <v>40.836089999999999</v>
@@ -6531,10 +7398,10 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D4" s="3">
         <v>40.759419999999999</v>
@@ -6548,10 +7415,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D5" s="3">
         <v>40.798034000000001</v>
@@ -6562,13 +7429,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D6" s="3">
         <v>40.676369000000001</v>
@@ -6582,10 +7449,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="D7" s="3">
         <v>40.617480999999998</v>
@@ -6599,10 +7466,10 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="D8" s="3">
         <v>40.524982999999999</v>
@@ -6616,10 +7483,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="D9" s="3">
         <v>40.520538000000002</v>
@@ -6633,10 +7500,10 @@
         <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D10" s="3">
         <v>40.477207</v>
@@ -6647,13 +7514,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="D11" s="3">
         <v>40.327762</v>
@@ -6664,13 +7531,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D12" s="3">
         <v>39.901653000000003</v>
@@ -6684,10 +7551,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="D13" s="3">
         <v>39.798878000000002</v>
@@ -6701,10 +7568,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="D14" s="3">
         <v>39.679426999999997</v>
@@ -6715,13 +7582,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="D15" s="3">
         <v>39.624431000000001</v>
@@ -6732,13 +7599,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="D16" s="3">
         <v>39.616930000000004</v>
@@ -6752,10 +7619,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D17" s="3">
         <v>39.410542999999997</v>
@@ -6766,13 +7633,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
         <v>258</v>
-      </c>
-      <c r="C18" t="s">
-        <v>281</v>
       </c>
       <c r="D18" s="3">
         <v>39.360267</v>
@@ -6803,13 +7670,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6817,10 +7684,10 @@
         <v>43110</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6872,35 +7739,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="140.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="152.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6908,16 +7775,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6925,33 +7792,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6959,33 +7826,33 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6993,33 +7860,33 @@
         <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7027,305 +7894,339 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E12" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E14" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E15" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" t="s">
-        <v>308</v>
+        <v>276</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E18" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E19" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E20" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" t="s">
-        <v>300</v>
+        <v>272</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="D26" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E26" t="s">
-        <v>304</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" t="s">
+        <v>278</v>
+      </c>
+      <c r="E28" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/data/Colorado-Transbasin-Diversions.xlsx
+++ b/data/Colorado-Transbasin-Diversions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -3111,11 +3111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42:H45"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6490,7 +6490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>

--- a/data/Colorado-Transbasin-Diversions.xlsx
+++ b/data/Colorado-Transbasin-Diversions.xlsx
@@ -3115,7 +3115,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomRight" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7742,7 +7742,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
